--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp8</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H2">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I2">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J2">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.84291836374797</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N2">
-        <v>4.84291836374797</v>
+        <v>0.560482</v>
       </c>
       <c r="O2">
-        <v>0.3971854622058597</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P2">
-        <v>0.3971854622058597</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q2">
-        <v>1.406549602615105</v>
+        <v>0.07484184649355556</v>
       </c>
       <c r="R2">
-        <v>1.406549602615105</v>
+        <v>0.673576618442</v>
       </c>
       <c r="S2">
-        <v>0.004978561320414604</v>
+        <v>0.0001856957372686282</v>
       </c>
       <c r="T2">
-        <v>0.004978561320414604</v>
+        <v>0.0001856957372686282</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H3">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I3">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J3">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.968021272900974</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N3">
-        <v>0.968021272900974</v>
+        <v>14.531156</v>
       </c>
       <c r="O3">
-        <v>0.07939096797095771</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P3">
-        <v>0.07939096797095771</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q3">
-        <v>0.2811465803169361</v>
+        <v>1.940363020981778</v>
       </c>
       <c r="R3">
-        <v>0.2811465803169361</v>
+        <v>17.463267188836</v>
       </c>
       <c r="S3">
-        <v>0.0009951341122491205</v>
+        <v>0.004814380705866469</v>
       </c>
       <c r="T3">
-        <v>0.0009951341122491205</v>
+        <v>0.004814380705866469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H4">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I4">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J4">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13664703581253</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N4">
-        <v>1.13664703581253</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O4">
-        <v>0.09322058403122289</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P4">
-        <v>0.09322058403122289</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q4">
-        <v>0.3301212856494378</v>
+        <v>0.7741022608114444</v>
       </c>
       <c r="R4">
-        <v>0.3301212856494378</v>
+        <v>6.966920347302999</v>
       </c>
       <c r="S4">
-        <v>0.001168482832545775</v>
+        <v>0.001920683371368594</v>
       </c>
       <c r="T4">
-        <v>0.001168482832545775</v>
+        <v>0.001920683371368594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H5">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I5">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J5">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.01760918969963</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N5">
-        <v>5.01760918969963</v>
+        <v>4.54027</v>
       </c>
       <c r="O5">
-        <v>0.4115124962868217</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P5">
-        <v>0.4115124962868217</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q5">
-        <v>1.457285810283214</v>
+        <v>0.6062678023188888</v>
       </c>
       <c r="R5">
-        <v>1.457285810283214</v>
+        <v>5.45641022087</v>
       </c>
       <c r="S5">
-        <v>0.0051581449771668</v>
+        <v>0.001504256666670178</v>
       </c>
       <c r="T5">
-        <v>0.0051581449771668</v>
+        <v>0.001504256666670178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.290434299521532</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H6">
-        <v>0.290434299521532</v>
+        <v>1.201781</v>
       </c>
       <c r="I6">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J6">
-        <v>0.01253460107216672</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.227894833685927</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N6">
-        <v>0.227894833685927</v>
+        <v>15.194269</v>
       </c>
       <c r="O6">
-        <v>0.01869048950513819</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P6">
-        <v>0.01869048950513819</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q6">
-        <v>0.06618847638614823</v>
+        <v>2.028909310343222</v>
       </c>
       <c r="R6">
-        <v>0.06618847638614823</v>
+        <v>18.260183793089</v>
       </c>
       <c r="S6">
-        <v>0.000234277829790426</v>
+        <v>0.005034079567609419</v>
       </c>
       <c r="T6">
-        <v>0.000234277829790426</v>
+        <v>0.005034079567609419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.74281891406082</v>
+        <v>0.4005936666666667</v>
       </c>
       <c r="H7">
-        <v>2.74281891406082</v>
+        <v>1.201781</v>
       </c>
       <c r="I7">
-        <v>0.1183749335308693</v>
+        <v>0.01390670970586347</v>
       </c>
       <c r="J7">
-        <v>0.1183749335308693</v>
+        <v>0.01390670970586346</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.84291836374797</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N7">
-        <v>4.84291836374797</v>
+        <v>1.351024</v>
       </c>
       <c r="O7">
-        <v>0.3971854622058597</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P7">
-        <v>0.3971854622058597</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q7">
-        <v>13.28324808734041</v>
+        <v>0.1804038859715555</v>
       </c>
       <c r="R7">
-        <v>13.28324808734041</v>
+        <v>1.623634973744</v>
       </c>
       <c r="S7">
-        <v>0.04701680268804622</v>
+        <v>0.0004476136570801759</v>
       </c>
       <c r="T7">
-        <v>0.04701680268804622</v>
+        <v>0.0004476136570801759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H8">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I8">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J8">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.968021272900974</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N8">
-        <v>0.968021272900974</v>
+        <v>0.560482</v>
       </c>
       <c r="O8">
-        <v>0.07939096797095771</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P8">
-        <v>0.07939096797095771</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q8">
-        <v>2.655107056526022</v>
+        <v>0.5146485221742222</v>
       </c>
       <c r="R8">
-        <v>2.655107056526022</v>
+        <v>4.631836699568</v>
       </c>
       <c r="S8">
-        <v>0.009397900556513491</v>
+        <v>0.001276933176248949</v>
       </c>
       <c r="T8">
-        <v>0.009397900556513491</v>
+        <v>0.001276933176248949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H9">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I9">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J9">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.13664703581253</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N9">
-        <v>1.13664703581253</v>
+        <v>14.531156</v>
       </c>
       <c r="O9">
-        <v>0.09322058403122289</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P9">
-        <v>0.09322058403122289</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q9">
-        <v>3.117616988437774</v>
+        <v>13.34286910352711</v>
       </c>
       <c r="R9">
-        <v>3.117616988437774</v>
+        <v>120.085821931744</v>
       </c>
       <c r="S9">
-        <v>0.01103498043840482</v>
+        <v>0.03310599659872925</v>
       </c>
       <c r="T9">
-        <v>0.01103498043840482</v>
+        <v>0.03310599659872925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H10">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I10">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J10">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.01760918969963</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N10">
-        <v>5.01760918969963</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O10">
-        <v>0.4115124962868217</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P10">
-        <v>0.4115124962868217</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q10">
-        <v>13.76239338887353</v>
+        <v>5.323099351545777</v>
       </c>
       <c r="R10">
-        <v>13.76239338887353</v>
+        <v>47.90789416391199</v>
       </c>
       <c r="S10">
-        <v>0.0487127643950746</v>
+        <v>0.0132075423703578</v>
       </c>
       <c r="T10">
-        <v>0.0487127643950746</v>
+        <v>0.0132075423703578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.74281891406082</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H11">
-        <v>2.74281891406082</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I11">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J11">
-        <v>0.1183749335308693</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.227894833685927</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N11">
-        <v>0.227894833685927</v>
+        <v>4.54027</v>
       </c>
       <c r="O11">
-        <v>0.01869048950513819</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P11">
-        <v>0.01869048950513819</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q11">
-        <v>0.6250742602505055</v>
+        <v>4.168988916275555</v>
       </c>
       <c r="R11">
-        <v>0.6250742602505055</v>
+        <v>37.52090024647999</v>
       </c>
       <c r="S11">
-        <v>0.002212485452830143</v>
+        <v>0.01034399212129527</v>
       </c>
       <c r="T11">
-        <v>0.002212485452830143</v>
+        <v>0.01034399212129527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.3566750723361</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H12">
-        <v>4.3566750723361</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I12">
-        <v>0.1880259463939022</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J12">
-        <v>0.1880259463939022</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.84291836374797</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N12">
-        <v>4.84291836374797</v>
+        <v>15.194269</v>
       </c>
       <c r="O12">
-        <v>0.3971854622058597</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P12">
-        <v>0.3971854622058597</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q12">
-        <v>21.09902171269951</v>
+        <v>13.95175596427289</v>
       </c>
       <c r="R12">
-        <v>21.09902171269951</v>
+        <v>125.565803678456</v>
       </c>
       <c r="S12">
-        <v>0.07468117242515625</v>
+        <v>0.03461675160834948</v>
       </c>
       <c r="T12">
-        <v>0.07468117242515625</v>
+        <v>0.03461675160834948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.3566750723361</v>
+        <v>2.754674666666666</v>
       </c>
       <c r="H13">
-        <v>4.3566750723361</v>
+        <v>8.264023999999999</v>
       </c>
       <c r="I13">
-        <v>0.1880259463939022</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="J13">
-        <v>0.1880259463939022</v>
+        <v>0.09562922260402569</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.968021272900974</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N13">
-        <v>0.968021272900974</v>
+        <v>1.351024</v>
       </c>
       <c r="O13">
-        <v>0.07939096797095771</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P13">
-        <v>0.07939096797095771</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q13">
-        <v>4.217354149138735</v>
+        <v>1.240543862286222</v>
       </c>
       <c r="R13">
-        <v>4.217354149138735</v>
+        <v>11.164894760576</v>
       </c>
       <c r="S13">
-        <v>0.0149275618878673</v>
+        <v>0.003078006729044928</v>
       </c>
       <c r="T13">
-        <v>0.0149275618878673</v>
+        <v>0.003078006729044928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H14">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I14">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J14">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.13664703581253</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N14">
-        <v>1.13664703581253</v>
+        <v>0.560482</v>
       </c>
       <c r="O14">
-        <v>0.09322058403122289</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P14">
-        <v>0.09322058403122289</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q14">
-        <v>4.952001806969168</v>
+        <v>1.408748091307555</v>
       </c>
       <c r="R14">
-        <v>4.952001806969168</v>
+        <v>12.678732821768</v>
       </c>
       <c r="S14">
-        <v>0.01752788853586297</v>
+        <v>0.003495350899227946</v>
       </c>
       <c r="T14">
-        <v>0.01752788853586297</v>
+        <v>0.003495350899227946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H15">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I15">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J15">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.01760918969963</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N15">
-        <v>5.01760918969963</v>
+        <v>14.531156</v>
       </c>
       <c r="O15">
-        <v>0.4115124962868217</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P15">
-        <v>0.4115124962868217</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q15">
-        <v>21.86009287948892</v>
+        <v>36.52345352659378</v>
       </c>
       <c r="R15">
-        <v>21.86009287948892</v>
+        <v>328.711081739344</v>
       </c>
       <c r="S15">
-        <v>0.07737502656724682</v>
+        <v>0.09062108897595561</v>
       </c>
       <c r="T15">
-        <v>0.07737502656724682</v>
+        <v>0.09062108897595561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.3566750723361</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H16">
-        <v>4.3566750723361</v>
+        <v>22.621124</v>
       </c>
       <c r="I16">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J16">
-        <v>0.1880259463939022</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.227894833685927</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N16">
-        <v>0.227894833685927</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O16">
-        <v>0.01869048950513819</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P16">
-        <v>0.01869048950513819</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q16">
-        <v>0.9928637410336595</v>
+        <v>14.57092700791244</v>
       </c>
       <c r="R16">
-        <v>0.9928637410336595</v>
+        <v>131.138343071212</v>
       </c>
       <c r="S16">
-        <v>0.003514296977768905</v>
+        <v>0.03615302347804385</v>
       </c>
       <c r="T16">
-        <v>0.003514296977768905</v>
+        <v>0.03615302347804385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.217242375319</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H17">
-        <v>12.217242375319</v>
+        <v>22.621124</v>
       </c>
       <c r="I17">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J17">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.84291836374797</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N17">
-        <v>4.84291836374797</v>
+        <v>4.54027</v>
       </c>
       <c r="O17">
-        <v>0.3971854622058597</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P17">
-        <v>0.3971854622058597</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q17">
-        <v>59.16710745379225</v>
+        <v>11.41177896260889</v>
       </c>
       <c r="R17">
-        <v>59.16710745379225</v>
+        <v>102.70601066348</v>
       </c>
       <c r="S17">
-        <v>0.209425300083691</v>
+        <v>0.02831462353338316</v>
       </c>
       <c r="T17">
-        <v>0.209425300083691</v>
+        <v>0.02831462353338316</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.217242375319</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H18">
-        <v>12.217242375319</v>
+        <v>22.621124</v>
       </c>
       <c r="I18">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J18">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.968021272900974</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N18">
-        <v>0.968021272900974</v>
+        <v>15.194269</v>
       </c>
       <c r="O18">
-        <v>0.07939096797095771</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P18">
-        <v>0.07939096797095771</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q18">
-        <v>11.82655051549602</v>
+        <v>38.19016034870622</v>
       </c>
       <c r="R18">
-        <v>11.82655051549602</v>
+        <v>343.711443138356</v>
       </c>
       <c r="S18">
-        <v>0.04186073981387334</v>
+        <v>0.09475648069386937</v>
       </c>
       <c r="T18">
-        <v>0.04186073981387334</v>
+        <v>0.09475648069386937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.217242375319</v>
+        <v>7.540374666666666</v>
       </c>
       <c r="H19">
-        <v>12.217242375319</v>
+        <v>22.621124</v>
       </c>
       <c r="I19">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="J19">
-        <v>0.5272733269757659</v>
+        <v>0.2617659995359728</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.13664703581253</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N19">
-        <v>1.13664703581253</v>
+        <v>1.351024</v>
       </c>
       <c r="O19">
-        <v>0.09322058403122289</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P19">
-        <v>0.09322058403122289</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q19">
-        <v>13.88669233170957</v>
+        <v>3.395742381219555</v>
       </c>
       <c r="R19">
-        <v>13.88669233170957</v>
+        <v>30.561681430976</v>
       </c>
       <c r="S19">
-        <v>0.04915272748476685</v>
+        <v>0.008425431955492835</v>
       </c>
       <c r="T19">
-        <v>0.04915272748476685</v>
+        <v>0.008425431955492835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H20">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I20">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J20">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>5.01760918969963</v>
+        <v>0.1868273333333333</v>
       </c>
       <c r="N20">
-        <v>5.01760918969963</v>
+        <v>0.560482</v>
       </c>
       <c r="O20">
-        <v>0.4115124962868217</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="P20">
-        <v>0.4115124962868217</v>
+        <v>0.01335295991620028</v>
       </c>
       <c r="Q20">
-        <v>61.30134761518836</v>
+        <v>2.479737959293111</v>
       </c>
       <c r="R20">
-        <v>61.30134761518836</v>
+        <v>22.317641633638</v>
       </c>
       <c r="S20">
-        <v>0.216979563009255</v>
+        <v>0.006152664453883942</v>
       </c>
       <c r="T20">
-        <v>0.216979563009255</v>
+        <v>0.006152664453883943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.217242375319</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H21">
-        <v>12.217242375319</v>
+        <v>39.818659</v>
       </c>
       <c r="I21">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J21">
-        <v>0.5272733269757659</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.227894833685927</v>
+        <v>4.843718666666667</v>
       </c>
       <c r="N21">
-        <v>0.227894833685927</v>
+        <v>14.531156</v>
       </c>
       <c r="O21">
-        <v>0.01869048950513819</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="P21">
-        <v>0.01869048950513819</v>
+        <v>0.3461912132843752</v>
       </c>
       <c r="Q21">
-        <v>2.784246419223983</v>
+        <v>64.29012729331156</v>
       </c>
       <c r="R21">
-        <v>2.784246419223983</v>
+        <v>578.611145639804</v>
       </c>
       <c r="S21">
-        <v>0.00985499658417985</v>
+        <v>0.159515072732117</v>
       </c>
       <c r="T21">
-        <v>0.00985499658417985</v>
+        <v>0.159515072732117</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.56343507638318</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H22">
-        <v>3.56343507638318</v>
+        <v>39.818659</v>
       </c>
       <c r="I22">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J22">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.84291836374797</v>
+        <v>1.932387666666666</v>
       </c>
       <c r="N22">
-        <v>4.84291836374797</v>
+        <v>5.797162999999999</v>
       </c>
       <c r="O22">
-        <v>0.3971854622058597</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="P22">
-        <v>0.3971854622058597</v>
+        <v>0.1381119914050395</v>
       </c>
       <c r="Q22">
-        <v>17.25742516943975</v>
+        <v>25.64836185160189</v>
       </c>
       <c r="R22">
-        <v>17.25742516943975</v>
+        <v>230.835256664417</v>
       </c>
       <c r="S22">
-        <v>0.06108362568855166</v>
+        <v>0.06363808065820346</v>
       </c>
       <c r="T22">
-        <v>0.06108362568855166</v>
+        <v>0.06363808065820346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.56343507638318</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H23">
-        <v>3.56343507638318</v>
+        <v>39.818659</v>
       </c>
       <c r="I23">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J23">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.968021272900974</v>
+        <v>1.513423333333333</v>
       </c>
       <c r="N23">
-        <v>0.968021272900974</v>
+        <v>4.54027</v>
       </c>
       <c r="O23">
-        <v>0.07939096797095771</v>
+        <v>0.108167690164406</v>
       </c>
       <c r="P23">
-        <v>0.07939096797095771</v>
+        <v>0.1081676901644061</v>
       </c>
       <c r="Q23">
-        <v>3.449480958540425</v>
+        <v>20.08749587754778</v>
       </c>
       <c r="R23">
-        <v>3.449480958540425</v>
+        <v>180.78746289793</v>
       </c>
       <c r="S23">
-        <v>0.01220963160045446</v>
+        <v>0.04984059762853337</v>
       </c>
       <c r="T23">
-        <v>0.01220963160045446</v>
+        <v>0.04984059762853338</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.56343507638318</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H24">
-        <v>3.56343507638318</v>
+        <v>39.818659</v>
       </c>
       <c r="I24">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J24">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.13664703581253</v>
+        <v>5.064756333333333</v>
       </c>
       <c r="N24">
-        <v>1.13664703581253</v>
+        <v>15.194269</v>
       </c>
       <c r="O24">
-        <v>0.09322058403122289</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="P24">
-        <v>0.09322058403122289</v>
+        <v>0.3619892608736132</v>
       </c>
       <c r="Q24">
-        <v>4.050367916881338</v>
+        <v>67.22393511836344</v>
       </c>
       <c r="R24">
-        <v>4.050367916881338</v>
+        <v>605.0154160652711</v>
       </c>
       <c r="S24">
-        <v>0.01433650473964248</v>
+        <v>0.1667943640992052</v>
       </c>
       <c r="T24">
-        <v>0.01433650473964248</v>
+        <v>0.1667943640992052</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.56343507638318</v>
+        <v>13.27288633333333</v>
       </c>
       <c r="H25">
-        <v>3.56343507638318</v>
+        <v>39.818659</v>
       </c>
       <c r="I25">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="J25">
-        <v>0.153791192027296</v>
+        <v>0.4607715811697536</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.01760918969963</v>
+        <v>0.4503413333333333</v>
       </c>
       <c r="N25">
-        <v>5.01760918969963</v>
+        <v>1.351024</v>
       </c>
       <c r="O25">
-        <v>0.4115124962868217</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="P25">
-        <v>0.4115124962868217</v>
+        <v>0.03218688435636571</v>
       </c>
       <c r="Q25">
-        <v>17.87992458615825</v>
+        <v>5.977329328535111</v>
       </c>
       <c r="R25">
-        <v>17.87992458615825</v>
+        <v>53.795963956816</v>
       </c>
       <c r="S25">
-        <v>0.06328699733807851</v>
+        <v>0.01483080159781063</v>
       </c>
       <c r="T25">
-        <v>0.06328699733807851</v>
+        <v>0.01483080159781063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.928157</v>
+      </c>
+      <c r="H26">
+        <v>2.784471</v>
+      </c>
+      <c r="I26">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J26">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1868273333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.560482</v>
+      </c>
+      <c r="O26">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="P26">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="Q26">
+        <v>0.1734050972246667</v>
+      </c>
+      <c r="R26">
+        <v>1.560645875022</v>
+      </c>
+      <c r="S26">
+        <v>0.0004302484356535129</v>
+      </c>
+      <c r="T26">
+        <v>0.000430248435653513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.928157</v>
+      </c>
+      <c r="H27">
+        <v>2.784471</v>
+      </c>
+      <c r="I27">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J27">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.843718666666667</v>
+      </c>
+      <c r="N27">
+        <v>14.531156</v>
+      </c>
+      <c r="O27">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="P27">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="Q27">
+        <v>4.495731386497334</v>
+      </c>
+      <c r="R27">
+        <v>40.461582478476</v>
+      </c>
+      <c r="S27">
+        <v>0.0111546974519024</v>
+      </c>
+      <c r="T27">
+        <v>0.0111546974519024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.928157</v>
+      </c>
+      <c r="H28">
+        <v>2.784471</v>
+      </c>
+      <c r="I28">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J28">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.932387666666666</v>
+      </c>
+      <c r="N28">
+        <v>5.797162999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="P28">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="Q28">
+        <v>1.793559139530333</v>
+      </c>
+      <c r="R28">
+        <v>16.142032255773</v>
+      </c>
+      <c r="S28">
+        <v>0.004450134548439425</v>
+      </c>
+      <c r="T28">
+        <v>0.004450134548439425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.928157</v>
+      </c>
+      <c r="H29">
+        <v>2.784471</v>
+      </c>
+      <c r="I29">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J29">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.513423333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.54027</v>
+      </c>
+      <c r="O29">
+        <v>0.108167690164406</v>
+      </c>
+      <c r="P29">
+        <v>0.1081676901644061</v>
+      </c>
+      <c r="Q29">
+        <v>1.404694460796666</v>
+      </c>
+      <c r="R29">
+        <v>12.64225014717</v>
+      </c>
+      <c r="S29">
+        <v>0.003485293131527105</v>
+      </c>
+      <c r="T29">
+        <v>0.003485293131527106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.928157</v>
+      </c>
+      <c r="H30">
+        <v>2.784471</v>
+      </c>
+      <c r="I30">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J30">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.064756333333333</v>
+      </c>
+      <c r="N30">
+        <v>15.194269</v>
+      </c>
+      <c r="O30">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="P30">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="Q30">
+        <v>4.700889044077667</v>
+      </c>
+      <c r="R30">
+        <v>42.308001396699</v>
+      </c>
+      <c r="S30">
+        <v>0.01166372955447038</v>
+      </c>
+      <c r="T30">
+        <v>0.01166372955447038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.928157</v>
+      </c>
+      <c r="H31">
+        <v>2.784471</v>
+      </c>
+      <c r="I31">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="J31">
+        <v>0.03222120326531652</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4503413333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.351024</v>
+      </c>
+      <c r="O31">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="P31">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="Q31">
+        <v>0.4179874609226666</v>
+      </c>
+      <c r="R31">
+        <v>3.761887148304</v>
+      </c>
+      <c r="S31">
+        <v>0.001037100143323696</v>
+      </c>
+      <c r="T31">
+        <v>0.001037100143323696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.909097</v>
+      </c>
+      <c r="H32">
+        <v>11.727291</v>
+      </c>
+      <c r="I32">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J32">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.1868273333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.560482</v>
+      </c>
+      <c r="O32">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="P32">
+        <v>0.01335295991620028</v>
+      </c>
+      <c r="Q32">
+        <v>0.7303261682513335</v>
+      </c>
+      <c r="R32">
+        <v>6.572935514262001</v>
+      </c>
+      <c r="S32">
+        <v>0.001812067213917301</v>
+      </c>
+      <c r="T32">
+        <v>0.001812067213917302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.909097</v>
+      </c>
+      <c r="H33">
+        <v>11.727291</v>
+      </c>
+      <c r="I33">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J33">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.843718666666667</v>
+      </c>
+      <c r="N33">
+        <v>14.531156</v>
+      </c>
+      <c r="O33">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="P33">
+        <v>0.3461912132843752</v>
+      </c>
+      <c r="Q33">
+        <v>18.93456610871067</v>
+      </c>
+      <c r="R33">
+        <v>170.411094978396</v>
+      </c>
+      <c r="S33">
+        <v>0.04697997681980452</v>
+      </c>
+      <c r="T33">
+        <v>0.04697997681980452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.909097</v>
+      </c>
+      <c r="H34">
+        <v>11.727291</v>
+      </c>
+      <c r="I34">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J34">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.932387666666666</v>
+      </c>
+      <c r="N34">
+        <v>5.797162999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="P34">
+        <v>0.1381119914050395</v>
+      </c>
+      <c r="Q34">
+        <v>7.553890830603667</v>
+      </c>
+      <c r="R34">
+        <v>67.985017475433</v>
+      </c>
+      <c r="S34">
+        <v>0.01874252697862637</v>
+      </c>
+      <c r="T34">
+        <v>0.01874252697862637</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.909097</v>
+      </c>
+      <c r="H35">
+        <v>11.727291</v>
+      </c>
+      <c r="I35">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J35">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.513423333333333</v>
+      </c>
+      <c r="N35">
+        <v>4.54027</v>
+      </c>
+      <c r="O35">
+        <v>0.108167690164406</v>
+      </c>
+      <c r="P35">
+        <v>0.1081676901644061</v>
+      </c>
+      <c r="Q35">
+        <v>5.916118612063333</v>
+      </c>
+      <c r="R35">
+        <v>53.24506750857</v>
+      </c>
+      <c r="S35">
+        <v>0.01467892708299696</v>
+      </c>
+      <c r="T35">
+        <v>0.01467892708299697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3.56343507638318</v>
-      </c>
-      <c r="H26">
-        <v>3.56343507638318</v>
-      </c>
-      <c r="I26">
-        <v>0.153791192027296</v>
-      </c>
-      <c r="J26">
-        <v>0.153791192027296</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.227894833685927</v>
-      </c>
-      <c r="N26">
-        <v>0.227894833685927</v>
-      </c>
-      <c r="O26">
-        <v>0.01869048950513819</v>
-      </c>
-      <c r="P26">
-        <v>0.01869048950513819</v>
-      </c>
-      <c r="Q26">
-        <v>0.8120884440829433</v>
-      </c>
-      <c r="R26">
-        <v>0.8120884440829433</v>
-      </c>
-      <c r="S26">
-        <v>0.002874432660568867</v>
-      </c>
-      <c r="T26">
-        <v>0.002874432660568867</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.909097</v>
+      </c>
+      <c r="H36">
+        <v>11.727291</v>
+      </c>
+      <c r="I36">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J36">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.064756333333333</v>
+      </c>
+      <c r="N36">
+        <v>15.194269</v>
+      </c>
+      <c r="O36">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="P36">
+        <v>0.3619892608736132</v>
+      </c>
+      <c r="Q36">
+        <v>19.79862378836433</v>
+      </c>
+      <c r="R36">
+        <v>178.187614095279</v>
+      </c>
+      <c r="S36">
+        <v>0.04912385535010941</v>
+      </c>
+      <c r="T36">
+        <v>0.04912385535010941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.909097</v>
+      </c>
+      <c r="H37">
+        <v>11.727291</v>
+      </c>
+      <c r="I37">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="J37">
+        <v>0.135705283719068</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4503413333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.351024</v>
+      </c>
+      <c r="O37">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="P37">
+        <v>0.03218688435636571</v>
+      </c>
+      <c r="Q37">
+        <v>1.760427955109334</v>
+      </c>
+      <c r="R37">
+        <v>15.843851595984</v>
+      </c>
+      <c r="S37">
+        <v>0.00436793027361344</v>
+      </c>
+      <c r="T37">
+        <v>0.00436793027361344</v>
       </c>
     </row>
   </sheetData>
